--- a/codebook.xlsx
+++ b/codebook.xlsx
@@ -5,22 +5,35 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nguye\OneDrive\Desktop\kalapa_credit_scoring\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nguye\OneDrive\Desktop\DS103\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6BC70F2-4ECE-4B54-873B-096B1E2511FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBEE06F0-6989-4B2B-B79B-4125B3D27E57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="359">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="359">
   <si>
     <t>col_name</t>
   </si>
@@ -990,9 +1003,6 @@
     <t>description</t>
   </si>
   <si>
-    <t>chỉ số của bộ</t>
-  </si>
-  <si>
     <t>cần dự đoán,0:good, 1: bad</t>
   </si>
   <si>
@@ -1099,6 +1109,9 @@
   </si>
   <si>
     <t>%missing values</t>
+  </si>
+  <si>
+    <t>chỉ số</t>
   </si>
 </sst>
 </file>
@@ -1508,16 +1521,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E196"/>
+  <dimension ref="A1:E197"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="G114" sqref="G114"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="19.21875" customWidth="1"/>
-    <col min="2" max="2" width="18.21875" customWidth="1"/>
+    <col min="2" max="2" width="25.21875" customWidth="1"/>
     <col min="3" max="3" width="20.5546875" customWidth="1"/>
     <col min="4" max="4" width="22.33203125" customWidth="1"/>
     <col min="5" max="5" width="44" customWidth="1"/>
@@ -1534,7 +1547,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>321</v>
@@ -1554,7 +1567,7 @@
         <v>0</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>322</v>
+        <v>358</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -1571,7 +1584,7 @@
         <v>0</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -1588,7 +1601,7 @@
         <v>51.79</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -1605,7 +1618,7 @@
         <v>51.79</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -1652,7 +1665,7 @@
         <v>51.83</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -1669,7 +1682,7 @@
         <v>51.83</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -1686,7 +1699,7 @@
         <v>51.79</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -1703,7 +1716,7 @@
         <v>51.79</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -1720,7 +1733,7 @@
         <v>51.79</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -1752,7 +1765,7 @@
         <v>86.02</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -1814,7 +1827,7 @@
         <v>70.38</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
@@ -1861,7 +1874,7 @@
         <v>84.18</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
@@ -1893,7 +1906,7 @@
         <v>51.79</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
@@ -2000,7 +2013,7 @@
         <v>51.79</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
@@ -2077,7 +2090,7 @@
         <v>52.93</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
@@ -2094,7 +2107,7 @@
         <v>56.27</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
@@ -2111,7 +2124,7 @@
         <v>51.91</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
@@ -2128,7 +2141,7 @@
         <v>87.12</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
@@ -2145,7 +2158,7 @@
         <v>51.79</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
@@ -2177,7 +2190,7 @@
         <v>51.79</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
@@ -2194,7 +2207,7 @@
         <v>51.79</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
@@ -2211,7 +2224,7 @@
         <v>51.79</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
@@ -2273,7 +2286,7 @@
         <v>61.13</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
@@ -2320,7 +2333,7 @@
         <v>51.79</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
@@ -2337,7 +2350,7 @@
         <v>51.79</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
@@ -2354,7 +2367,7 @@
         <v>51.79</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
@@ -2371,7 +2384,7 @@
         <v>51.79</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
@@ -2403,7 +2416,7 @@
         <v>55.55</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
@@ -2420,7 +2433,7 @@
         <v>54.99</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
@@ -2497,7 +2510,7 @@
         <v>72.739999999999995</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
@@ -2529,7 +2542,7 @@
         <v>51.79</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
@@ -2605,7 +2618,9 @@
       <c r="D68" s="2">
         <v>51.79</v>
       </c>
-      <c r="E68" s="2"/>
+      <c r="E68" s="2" t="s">
+        <v>353</v>
+      </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
@@ -2711,7 +2726,7 @@
         <v>62.31</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
@@ -2728,7 +2743,7 @@
         <v>82.75</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
@@ -2895,7 +2910,7 @@
         <v>56.16</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.3">
@@ -2912,7 +2927,7 @@
         <v>54.93</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.3">
@@ -2929,7 +2944,7 @@
         <v>54.93</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.3">
@@ -2946,7 +2961,7 @@
         <v>54.93</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.3">
@@ -2963,7 +2978,7 @@
         <v>54.93</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.3">
@@ -2980,7 +2995,7 @@
         <v>54.93</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.3">
@@ -2997,7 +3012,7 @@
         <v>54.93</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.3">
@@ -3014,7 +3029,7 @@
         <v>54.93</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.3">
@@ -3031,7 +3046,7 @@
         <v>54.93</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.3">
@@ -3048,7 +3063,7 @@
         <v>74.53</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.3">
@@ -3065,7 +3080,7 @@
         <v>74.53</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.3">
@@ -3082,7 +3097,7 @@
         <v>74.53</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.3">
@@ -3099,7 +3114,7 @@
         <v>74.53</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.3">
@@ -3236,7 +3251,7 @@
         <v>52.64</v>
       </c>
       <c r="E108" s="3" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.3">
@@ -3253,7 +3268,7 @@
         <v>52.64</v>
       </c>
       <c r="E109" s="3" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.3">
@@ -3510,7 +3525,7 @@
         <v>21.07</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.3">
@@ -3527,7 +3542,7 @@
         <v>23.68</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.3">
@@ -3544,7 +3559,7 @@
         <v>33.020000000000003</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.3">
@@ -3561,7 +3576,7 @@
         <v>57.05</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.3">
@@ -4493,7 +4508,7 @@
         <v>4.74</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.3">
@@ -4570,6 +4585,12 @@
         <v>0</v>
       </c>
       <c r="E196" s="2"/>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D197">
+        <f>AVERAGE(D2:D196)</f>
+        <v>38.586256410256368</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
